--- a/input/华泰/华泰证券.xlsx
+++ b/input/华泰/华泰证券.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huatai\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E794441D-F2E3-46A8-B08E-2622AA17928E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>流水号</t>
   </si>
@@ -152,36 +135,387 @@
   <si>
     <t>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=10093</t>
   </si>
+  <si>
+    <t>801120758</t>
+  </si>
+  <si>
+    <t>20200911</t>
+  </si>
+  <si>
+    <t>911244538</t>
+  </si>
+  <si>
+    <t>910384017</t>
+  </si>
+  <si>
+    <t>20200914</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -189,9 +523,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -199,17 +775,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,7 +878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -293,7 +913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -467,38 +1087,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:Q59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="93.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="93.375" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="17" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="str">
         <f>"5481"</f>
         <v>5481</v>
@@ -614,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="str">
         <f>"11146"</f>
         <v>11146</v>
@@ -655,7 +1270,7 @@
         <v>卖出</v>
       </c>
       <c r="K3" s="1">
-        <v>2.0920000000000001</v>
+        <v>2.092</v>
       </c>
       <c r="L3" s="1">
         <v>-4400</v>
@@ -677,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="str">
         <f>"15776"</f>
         <v>15776</v>
@@ -703,15 +1318,15 @@
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" ref="G4:I6" si="0">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J4" s="1" t="str">
         <f>"卖出"</f>
@@ -740,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="str">
         <f>"573"</f>
         <v>573</v>
@@ -766,15 +1381,15 @@
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J5" s="1" t="str">
         <f>"卖出"</f>
@@ -803,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="str">
         <f>"578"</f>
         <v>578</v>
@@ -829,15 +1444,15 @@
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J6" s="1" t="str">
         <f>"卖出"</f>
@@ -866,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="str">
         <f>"3243"</f>
         <v>3243</v>
@@ -892,15 +1507,15 @@
       </c>
       <c r="G7" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H7" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I7" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" ref="J7:J55" si="2">"卖出"</f>
@@ -929,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="str">
         <f>"14950"</f>
         <v>14950</v>
@@ -992,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="str">
         <f>"1132"</f>
         <v>1132</v>
@@ -1018,15 +1633,15 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" ref="G9:I12" si="3">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1055,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="str">
         <f>"1135"</f>
         <v>1135</v>
@@ -1081,15 +1696,15 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1118,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="str">
         <f>"3199"</f>
         <v>3199</v>
@@ -1144,15 +1759,15 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1181,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="str">
         <f>"4431"</f>
         <v>4431</v>
@@ -1207,15 +1822,15 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1244,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="str">
         <f>"8958"</f>
         <v>8958</v>
@@ -1285,7 +1900,7 @@
         <v>卖出</v>
       </c>
       <c r="K13" s="1">
-        <v>3.4710000000000001</v>
+        <v>3.471</v>
       </c>
       <c r="L13" s="1">
         <v>-2200</v>
@@ -1307,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="str">
         <f>"1715"</f>
         <v>1715</v>
@@ -1333,15 +1948,15 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" ref="G14:I15" si="4">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1370,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="str">
         <f>"1718"</f>
         <v>1718</v>
@@ -1396,15 +2011,15 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1433,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="str">
         <f>"11582"</f>
         <v>11582</v>
@@ -1496,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="str">
         <f>"13211"</f>
         <v>13211</v>
@@ -1522,15 +2137,15 @@
       </c>
       <c r="G17" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H17" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I17" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1559,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="str">
         <f>"20570"</f>
         <v>20570</v>
@@ -1585,15 +2200,15 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" ref="G18:I20" si="5">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1622,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="str">
         <f>"761"</f>
         <v>761</v>
@@ -1648,15 +2263,15 @@
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1685,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="str">
         <f>"764"</f>
         <v>764</v>
@@ -1711,15 +2326,15 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1748,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="str">
         <f>"5677"</f>
         <v>5677</v>
@@ -1789,7 +2404,7 @@
         <v>卖出</v>
       </c>
       <c r="K21" s="1">
-        <v>5.5780000000000003</v>
+        <v>5.578</v>
       </c>
       <c r="L21" s="1">
         <v>-4100</v>
@@ -1811,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="str">
         <f>"5678"</f>
         <v>5678</v>
@@ -1852,7 +2467,7 @@
         <v>卖出</v>
       </c>
       <c r="K22" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.814</v>
       </c>
       <c r="L22" s="1">
         <v>-3100</v>
@@ -1874,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="str">
         <f>"17368"</f>
         <v>17368</v>
@@ -1900,15 +2515,15 @@
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" ref="G23:I26" si="6">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1937,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="str">
         <f>"495"</f>
         <v>495</v>
@@ -1963,15 +2578,15 @@
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2000,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="str">
         <f>"499"</f>
         <v>499</v>
@@ -2026,15 +2641,15 @@
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2063,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="str">
         <f>"14651"</f>
         <v>14651</v>
@@ -2089,15 +2704,15 @@
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2126,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="str">
         <f>"7761"</f>
         <v>7761</v>
@@ -2167,7 +2782,7 @@
         <v>卖出</v>
       </c>
       <c r="K27" s="1">
-        <v>5.7210000000000001</v>
+        <v>5.721</v>
       </c>
       <c r="L27" s="1">
         <v>-8800</v>
@@ -2189,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="str">
         <f>"7762"</f>
         <v>7762</v>
@@ -2230,7 +2845,7 @@
         <v>卖出</v>
       </c>
       <c r="K28" s="1">
-        <v>0.76600000000000001</v>
+        <v>0.766</v>
       </c>
       <c r="L28" s="1">
         <v>-3300</v>
@@ -2252,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="str">
         <f>"7763"</f>
         <v>7763</v>
@@ -2293,7 +2908,7 @@
         <v>卖出</v>
       </c>
       <c r="K29" s="1">
-        <v>5.7510000000000003</v>
+        <v>5.751</v>
       </c>
       <c r="L29" s="1">
         <v>-1800</v>
@@ -2303,7 +2918,7 @@
         <v>证券卖出</v>
       </c>
       <c r="N29" s="1">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
@@ -2315,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="str">
         <f>"22535"</f>
         <v>22535</v>
@@ -2341,15 +2956,15 @@
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" ref="G30:I37" si="7">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2378,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="str">
         <f>"1079"</f>
         <v>1079</v>
@@ -2404,15 +3019,15 @@
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2441,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="str">
         <f>"1082"</f>
         <v>1082</v>
@@ -2467,15 +3082,15 @@
       </c>
       <c r="G32" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2504,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="str">
         <f>"9617"</f>
         <v>9617</v>
@@ -2530,15 +3145,15 @@
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2567,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="str">
         <f>"12077"</f>
         <v>12077</v>
@@ -2593,15 +3208,15 @@
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2630,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="str">
         <f>"14794"</f>
         <v>14794</v>
@@ -2656,15 +3271,15 @@
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2693,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="str">
         <f>"1378"</f>
         <v>1378</v>
@@ -2719,15 +3334,15 @@
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2756,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="str">
         <f>"11557"</f>
         <v>11557</v>
@@ -2782,15 +3397,15 @@
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I37" s="1" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2819,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="str">
         <f>"3923"</f>
         <v>3923</v>
@@ -2860,7 +3475,7 @@
         <v>卖出</v>
       </c>
       <c r="K38" s="1">
-        <v>5.9939999999999998</v>
+        <v>5.994</v>
       </c>
       <c r="L38" s="1">
         <v>-1800</v>
@@ -2882,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="str">
         <f>"8298"</f>
         <v>8298</v>
@@ -2908,15 +3523,15 @@
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" ref="G39:I42" si="8">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I39" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2945,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="str">
         <f>"2579"</f>
         <v>2579</v>
@@ -2971,15 +3586,15 @@
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I40" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3008,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="str">
         <f>"867"</f>
         <v>867</v>
@@ -3034,15 +3649,15 @@
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I41" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3071,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="str">
         <f>"870"</f>
         <v>870</v>
@@ -3097,15 +3712,15 @@
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I42" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3134,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="str">
         <f>"2828"</f>
         <v>2828</v>
@@ -3175,7 +3790,7 @@
         <v>卖出</v>
       </c>
       <c r="K43" s="1">
-        <v>5.8739999999999997</v>
+        <v>5.874</v>
       </c>
       <c r="L43" s="1">
         <v>-1800</v>
@@ -3197,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="str">
         <f>"8367"</f>
         <v>8367</v>
@@ -3223,15 +3838,15 @@
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" ref="G44:I48" si="9">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3260,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="str">
         <f>"617"</f>
         <v>617</v>
@@ -3286,15 +3901,15 @@
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I45" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3323,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="str">
         <f>"620"</f>
         <v>620</v>
@@ -3349,15 +3964,15 @@
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I46" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3386,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="str">
         <f>"9673"</f>
         <v>9673</v>
@@ -3412,15 +4027,15 @@
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I47" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3449,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="str">
         <f>"2993"</f>
         <v>2993</v>
@@ -3475,15 +4090,15 @@
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I48" s="1" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3512,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="str">
         <f>"5457"</f>
         <v>5457</v>
@@ -3553,7 +4168,7 @@
         <v>卖出</v>
       </c>
       <c r="K49" s="1">
-        <v>5.8620000000000001</v>
+        <v>5.862</v>
       </c>
       <c r="L49" s="1">
         <v>-1800</v>
@@ -3575,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="str">
         <f>"3172"</f>
         <v>3172</v>
@@ -3601,15 +4216,15 @@
       </c>
       <c r="G50" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H50" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I50" s="1" t="str">
         <f>" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3638,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="str">
         <f>"6450"</f>
         <v>6450</v>
@@ -3701,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="str">
         <f>"799"</f>
         <v>799</v>
@@ -3727,15 +4342,15 @@
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" ref="G52:I55" si="10">" "</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I52" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3764,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="str">
         <f>"803"</f>
         <v>803</v>
@@ -3790,15 +4405,15 @@
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I53" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3827,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="str">
         <f>"807"</f>
         <v>807</v>
@@ -3853,15 +4468,15 @@
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I54" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3890,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="str">
         <f>"811"</f>
         <v>811</v>
@@ -3916,15 +4531,15 @@
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I55" s="1" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3953,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3985,7 +4600,7 @@
         <v>25</v>
       </c>
       <c r="K56">
-        <v>2.1030000000000002</v>
+        <v>2.103</v>
       </c>
       <c r="L56">
         <v>-4800</v>
@@ -4006,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -4020,7 +4635,7 @@
         <v>28</v>
       </c>
       <c r="E57">
-        <v>-10091.379999999999</v>
+        <v>-10091.38</v>
       </c>
       <c r="F57" t="s">
         <v>21</v>
@@ -4059,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -4112,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -4165,8 +4780,149 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>9660.47</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>2.013</v>
+      </c>
+      <c r="L60">
+        <v>-4800</v>
+      </c>
+      <c r="M60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>1.93</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>-9659.47</v>
+      </c>
+      <c r="E61">
+        <v>-9659.47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>